--- a/PSP/20151118 강주영 PSP.xlsx
+++ b/PSP/20151118 강주영 PSP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmo/Documents/2019년2학기/융합소프트웨어종합설계/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmo/Documents/2019:02/YoongSoJongSeol/ChemicalManagementApplication/PSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2CA1FF4-7933-AC46-8AF1-BE1E04CDB919}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE54DE5-1E96-784A-A322-013DD2B96487}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12560" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -47,6 +47,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
@@ -60,6 +61,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
 중간에 interrupt 걸린 시간 포함 작업시간. 10분 단위로 작성
@@ -74,6 +76,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 원래 Phase를 기술하지만, 우리는 관련된 Activity가 뭔지를 기술하도록 함. 성혜가 작성하는 Test Case 정도의 Granulity로 작성할 것</t>
@@ -85,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -133,6 +136,90 @@
   <si>
     <t>강의주제 선정 및 프로젝트 수행계획서 작성</t>
   </si>
+  <si>
+    <t>강주영</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수행계획서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재구상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토론</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -143,7 +230,7 @@
     <numFmt numFmtId="177" formatCode="h:mm:ss\ am/pm"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -176,6 +263,24 @@
     <font>
       <sz val="8"/>
       <name val="나눔명조"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -215,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -252,6 +357,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -565,7 +675,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -604,6 +714,9 @@
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="E3" s="20" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1">
       <c r="D4" s="4"/>
@@ -674,13 +787,25 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="13">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
+    <row r="8" spans="1:11" ht="14">
+      <c r="A8" s="21">
+        <v>43726</v>
+      </c>
+      <c r="B8" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>120</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="13">
       <c r="A9" s="15"/>

--- a/PSP/20151118 강주영 PSP.xlsx
+++ b/PSP/20151118 강주영 PSP.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17668"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmo/Documents/2019:02/YoongSoJongSeol/ChemicalManagementApplication/PSP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\융종설\jooyoung_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE54DE5-1E96-784A-A322-013DD2B96487}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12560" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="12555" windowHeight="16125"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -30,17 +29,17 @@
     <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
     <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -220,15 +219,318 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Prototyping Front End </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Prototyping </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Diagram Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Prototyping Front End </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
-    <numFmt numFmtId="177" formatCode="h:mm:ss\ am/pm"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="180" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -320,15 +622,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -339,8 +637,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -350,7 +646,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -362,6 +657,26 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -671,629 +986,688 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
-    <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="40.6640625" customWidth="1"/>
-    <col min="7" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="23" customWidth="1"/>
+    <col min="2" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="7" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="A2" s="21"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="2"/>
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1">
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" ht="14">
-      <c r="A6" s="8">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75">
+      <c r="A6" s="16">
         <v>43716</v>
       </c>
-      <c r="B6" s="9">
-        <v>0.1875</v>
-      </c>
-      <c r="C6" s="10">
+      <c r="B6" s="18">
+        <v>0.6875</v>
+      </c>
+      <c r="C6" s="6">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="7">
         <v>0</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="8">
         <v>60</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13">
-      <c r="A7" s="8">
+    <row r="7" spans="1:11" ht="12.75">
+      <c r="A7" s="16">
         <v>43716</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="18">
         <v>0.75</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="6">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="7">
         <v>0</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="8">
         <v>120</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14">
-      <c r="A8" s="21">
+    <row r="8" spans="1:11" ht="12.75">
+      <c r="A8" s="16">
         <v>43726</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="19">
         <v>0.75</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="11">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="7">
         <v>0</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="12">
         <v>120</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="13">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-    </row>
-    <row r="10" spans="1:11" ht="13">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="1:11" ht="13">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="1:11" ht="13">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="1:11" ht="13">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
+    <row r="9" spans="1:11" ht="12.75">
+      <c r="A9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D9" s="7">
+        <v>120</v>
+      </c>
+      <c r="E9" s="12">
+        <v>600</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="12.75">
+      <c r="A10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>150</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="12.75">
+      <c r="A11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>360</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="12.75">
+      <c r="A12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>60</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="12.75">
+      <c r="A13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>150</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="1:11" ht="13">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="1:11" ht="13">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="1:6" ht="13">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="18" spans="1:6" ht="14">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="19"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:11" ht="12.75">
+      <c r="A15" s="16"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" ht="12.75">
+      <c r="A16" s="16"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75">
+      <c r="A17" s="16"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75">
+      <c r="A18" s="16"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="1:6" ht="13">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="1:6" ht="14">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="1:6" ht="13">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75">
+      <c r="A20" s="16"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" ht="12.75">
+      <c r="A21" s="16"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" ht="12.75">
+      <c r="A22" s="16"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="24" spans="1:6" ht="13">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" ht="12.75">
+      <c r="A24" s="16"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27" spans="1:6" ht="13">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
-    </row>
-    <row r="28" spans="1:6" ht="13">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" spans="1:6" ht="13">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18"/>
-    </row>
-    <row r="30" spans="1:6" ht="13">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
-    </row>
-    <row r="31" spans="1:6" ht="13">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
-    </row>
-    <row r="32" spans="1:6" ht="13">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
-    </row>
-    <row r="33" spans="1:6" ht="13">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="18"/>
-    </row>
-    <row r="34" spans="1:6" ht="13">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="18"/>
-    </row>
-    <row r="35" spans="1:6" ht="13">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="18"/>
-    </row>
-    <row r="36" spans="1:6" ht="13">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="18"/>
-    </row>
-    <row r="37" spans="1:6" ht="13">
-      <c r="A37" s="18"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="18"/>
-    </row>
-    <row r="38" spans="1:6" ht="13">
-      <c r="A38" s="18"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="18"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" ht="12.75">
+      <c r="A27" s="16"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" ht="12.75">
+      <c r="A28" s="16"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" ht="12.75">
+      <c r="A29" s="16"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6" ht="12.75">
+      <c r="A30" s="16"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:6" ht="12.75">
+      <c r="A31" s="16"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6" ht="12.75">
+      <c r="A32" s="16"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="1:6" ht="12.75">
+      <c r="A33" s="16"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:6" ht="12.75">
+      <c r="A34" s="16"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:6" ht="12.75">
+      <c r="A35" s="16"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="1:6" ht="12.75">
+      <c r="A36" s="16"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="1:6" ht="12.75">
+      <c r="A37" s="25"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:6" ht="12.75">
+      <c r="A38" s="25"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
     </row>
     <row r="49" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
     </row>
     <row r="50" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
     </row>
     <row r="51" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
     </row>
     <row r="52" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
     </row>
     <row r="53" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
     </row>
     <row r="54" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
     </row>
     <row r="55" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
     </row>
     <row r="56" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
     </row>
     <row r="57" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
     </row>
     <row r="58" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
     </row>
     <row r="59" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
     </row>
     <row r="60" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
     </row>
     <row r="61" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
     </row>
     <row r="62" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
     </row>
     <row r="63" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
     </row>
     <row r="64" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
     </row>
     <row r="65" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
     </row>
     <row r="66" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
     </row>
     <row r="67" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
     </row>
     <row r="68" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
     </row>
     <row r="69" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
     </row>
     <row r="70" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
     </row>
     <row r="71" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
     </row>
     <row r="72" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
     </row>
     <row r="73" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
     </row>
     <row r="74" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
     </row>
     <row r="75" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
     </row>
     <row r="76" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
     </row>
     <row r="77" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
     </row>
     <row r="78" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
     </row>
     <row r="79" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
     </row>
     <row r="80" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
     </row>
     <row r="81" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
     </row>
     <row r="82" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
     </row>
     <row r="83" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
     </row>
     <row r="84" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
     </row>
     <row r="85" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
     </row>
     <row r="86" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
     </row>
     <row r="87" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
     </row>
     <row r="88" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
     </row>
     <row r="89" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
     </row>
     <row r="90" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
     </row>
     <row r="91" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
     </row>
     <row r="92" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
     </row>
     <row r="93" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
     </row>
     <row r="94" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
     </row>
     <row r="95" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
     </row>
     <row r="96" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
     </row>
     <row r="97" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
     </row>
     <row r="98" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
     </row>
     <row r="99" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
     </row>
     <row r="100" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1307,14 +1681,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1425,14 +1799,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1543,14 +1917,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1661,14 +2035,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1779,14 +2153,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1897,14 +2271,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2015,14 +2389,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2133,14 +2507,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2251,14 +2625,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2369,14 +2743,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2487,14 +2861,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2605,14 +2979,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2723,14 +3097,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2841,14 +3215,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2959,14 +3333,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>

--- a/PSP/20151118 강주영 PSP.xlsx
+++ b/PSP/20151118 강주영 PSP.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17668"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmo/Documents/2019:02/YoongSoJongSeol/ChemicalManagementApplication/PSP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\융종설\jooyoung_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE54DE5-1E96-784A-A322-013DD2B96487}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12560" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="12555" windowHeight="16125"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -30,17 +29,17 @@
     <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
     <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -220,15 +219,416 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Prototyping Front End </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Prototyping </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Diagram Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Prototyping Front End </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
-    <numFmt numFmtId="177" formatCode="h:mm:ss\ am/pm"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -320,15 +720,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -339,20 +735,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -362,6 +755,26 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -671,629 +1084,700 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
-    <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="40.6640625" customWidth="1"/>
-    <col min="7" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="23" customWidth="1"/>
+    <col min="2" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="7" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="A2" s="21"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="2"/>
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1">
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" ht="14">
-      <c r="A6" s="8">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75">
+      <c r="A6" s="16">
         <v>43716</v>
       </c>
-      <c r="B6" s="9">
-        <v>0.1875</v>
-      </c>
-      <c r="C6" s="10">
+      <c r="B6" s="18">
+        <v>0.6875</v>
+      </c>
+      <c r="C6" s="6">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="7">
         <v>0</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="8">
         <v>60</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13">
-      <c r="A7" s="8">
+    <row r="7" spans="1:11" ht="12.75">
+      <c r="A7" s="16">
         <v>43716</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="18">
         <v>0.75</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="6">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="7">
         <v>0</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="8">
         <v>120</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14">
-      <c r="A8" s="21">
+    <row r="8" spans="1:11" ht="12.75">
+      <c r="A8" s="16">
         <v>43726</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="19">
         <v>0.75</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="11">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="7">
         <v>0</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="12">
         <v>120</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="13">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-    </row>
-    <row r="10" spans="1:11" ht="13">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="1:11" ht="13">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="1:11" ht="13">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="1:11" ht="13">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
+    <row r="9" spans="1:11" ht="12.75">
+      <c r="A9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D9" s="7">
+        <v>120</v>
+      </c>
+      <c r="E9" s="12">
+        <v>600</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="12.75">
+      <c r="A10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>150</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="12.75">
+      <c r="A11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>360</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="12.75">
+      <c r="A12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>60</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="12.75">
+      <c r="A13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>150</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="1:11" ht="13">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="1:11" ht="13">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="1:6" ht="13">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="18" spans="1:6" ht="14">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="19"/>
+      <c r="A14" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.875</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>60</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="12.75">
+      <c r="A15" s="16"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" ht="12.75">
+      <c r="A16" s="16"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75">
+      <c r="A17" s="16"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75">
+      <c r="A18" s="16"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="1:6" ht="13">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="1:6" ht="14">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="1:6" ht="13">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75">
+      <c r="A20" s="16"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" ht="12.75">
+      <c r="A21" s="16"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" ht="12.75">
+      <c r="A22" s="16"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="24" spans="1:6" ht="13">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" ht="12.75">
+      <c r="A24" s="16"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27" spans="1:6" ht="13">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
-    </row>
-    <row r="28" spans="1:6" ht="13">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" spans="1:6" ht="13">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18"/>
-    </row>
-    <row r="30" spans="1:6" ht="13">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
-    </row>
-    <row r="31" spans="1:6" ht="13">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
-    </row>
-    <row r="32" spans="1:6" ht="13">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
-    </row>
-    <row r="33" spans="1:6" ht="13">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="18"/>
-    </row>
-    <row r="34" spans="1:6" ht="13">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="18"/>
-    </row>
-    <row r="35" spans="1:6" ht="13">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="18"/>
-    </row>
-    <row r="36" spans="1:6" ht="13">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="18"/>
-    </row>
-    <row r="37" spans="1:6" ht="13">
-      <c r="A37" s="18"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="18"/>
-    </row>
-    <row r="38" spans="1:6" ht="13">
-      <c r="A38" s="18"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="18"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" ht="12.75">
+      <c r="A27" s="16"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" ht="12.75">
+      <c r="A28" s="16"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" ht="12.75">
+      <c r="A29" s="16"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6" ht="12.75">
+      <c r="A30" s="16"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:6" ht="12.75">
+      <c r="A31" s="16"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6" ht="12.75">
+      <c r="A32" s="16"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="1:6" ht="12.75">
+      <c r="A33" s="16"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:6" ht="12.75">
+      <c r="A34" s="16"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:6" ht="12.75">
+      <c r="A35" s="16"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="1:6" ht="12.75">
+      <c r="A36" s="16"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="1:6" ht="12.75">
+      <c r="A37" s="25"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:6" ht="12.75">
+      <c r="A38" s="25"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
     </row>
     <row r="49" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
     </row>
     <row r="50" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
     </row>
     <row r="51" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
     </row>
     <row r="52" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
     </row>
     <row r="53" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
     </row>
     <row r="54" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
     </row>
     <row r="55" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
     </row>
     <row r="56" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
     </row>
     <row r="57" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
     </row>
     <row r="58" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
     </row>
     <row r="59" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
     </row>
     <row r="60" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
     </row>
     <row r="61" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
     </row>
     <row r="62" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
     </row>
     <row r="63" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
     </row>
     <row r="64" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
     </row>
     <row r="65" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
     </row>
     <row r="66" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
     </row>
     <row r="67" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
     </row>
     <row r="68" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
     </row>
     <row r="69" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
     </row>
     <row r="70" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
     </row>
     <row r="71" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
     </row>
     <row r="72" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
     </row>
     <row r="73" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
     </row>
     <row r="74" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
     </row>
     <row r="75" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
     </row>
     <row r="76" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
     </row>
     <row r="77" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
     </row>
     <row r="78" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
     </row>
     <row r="79" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
     </row>
     <row r="80" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
     </row>
     <row r="81" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
     </row>
     <row r="82" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
     </row>
     <row r="83" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
     </row>
     <row r="84" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
     </row>
     <row r="85" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
     </row>
     <row r="86" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
     </row>
     <row r="87" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
     </row>
     <row r="88" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
     </row>
     <row r="89" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
     </row>
     <row r="90" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
     </row>
     <row r="91" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
     </row>
     <row r="92" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
     </row>
     <row r="93" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
     </row>
     <row r="94" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
     </row>
     <row r="95" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
     </row>
     <row r="96" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
     </row>
     <row r="97" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
     </row>
     <row r="98" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
     </row>
     <row r="99" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
     </row>
     <row r="100" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1307,14 +1791,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1425,14 +1909,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1543,14 +2027,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1661,14 +2145,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1779,14 +2263,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1897,14 +2381,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2015,14 +2499,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2133,14 +2617,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2251,14 +2735,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2369,14 +2853,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2487,14 +2971,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2605,14 +3089,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2723,14 +3207,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2841,14 +3325,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2959,14 +3443,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>

--- a/PSP/20151118 강주영 PSP.xlsx
+++ b/PSP/20151118 강주영 PSP.xlsx
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -522,6 +522,104 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -529,8 +627,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="180" formatCode="h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -641,13 +739,13 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -657,8 +755,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -990,7 +1088,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -1222,12 +1320,24 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
+      <c r="A14" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.875</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>60</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="12.75">
       <c r="A15" s="16"/>

--- a/PSP/20151118 강주영 PSP.xlsx
+++ b/PSP/20151118 강주영 PSP.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17668"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmo/Documents/2019:02/YoongSoJongSeol/ChemicalManagementApplication/PSP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PSP_강주영\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE54DE5-1E96-784A-A322-013DD2B96487}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12560" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="12555" windowHeight="16125"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -30,17 +29,17 @@
     <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
     <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -220,15 +219,505 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Prototyping Front End </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Prototyping </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Diagram Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Use Case Specification</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생성</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
-    <numFmt numFmtId="177" formatCode="h:mm:ss\ am/pm"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -320,7 +809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -339,13 +828,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -362,6 +846,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -671,22 +1157,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
-    <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="40.6640625" customWidth="1"/>
-    <col min="7" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="7" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="11.25" customHeight="1">
@@ -714,7 +1200,7 @@
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="17" t="s">
         <v>12</v>
       </c>
     </row>
@@ -747,305 +1233,401 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="14">
-      <c r="A6" s="8">
+    <row r="6" spans="1:11" ht="12.75">
+      <c r="A6" s="18">
         <v>43716</v>
       </c>
-      <c r="B6" s="9">
-        <v>0.1875</v>
-      </c>
-      <c r="C6" s="10">
+      <c r="B6" s="20">
+        <v>0.6875</v>
+      </c>
+      <c r="C6" s="8">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>0</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="14">
         <v>60</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13">
-      <c r="A7" s="8">
+    <row r="7" spans="1:11" ht="12.75">
+      <c r="A7" s="18">
         <v>43716</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="20">
         <v>0.75</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <v>0</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="14">
         <v>120</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14">
-      <c r="A8" s="21">
+    <row r="8" spans="1:11" ht="12.75">
+      <c r="A8" s="18">
         <v>43726</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="21">
         <v>0.75</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="13">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <v>0</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="14">
         <v>120</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="13">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-    </row>
-    <row r="10" spans="1:11" ht="13">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="1:11" ht="13">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="1:11" ht="13">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="1:11" ht="13">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
+    <row r="9" spans="1:11" ht="12.75">
+      <c r="A9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="21">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D9" s="9">
+        <v>120</v>
+      </c>
+      <c r="E9" s="14">
+        <v>600</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="12.75">
+      <c r="A10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
+        <v>150</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="12.75">
+      <c r="A11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
+        <v>360</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="12.75">
+      <c r="A12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14">
+        <v>60</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="12.75">
+      <c r="A13" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <v>150</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="1:11" ht="13">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="1:11" ht="13">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="1:6" ht="13">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="18" spans="1:6" ht="14">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="19"/>
+      <c r="A14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="13">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="14">
+        <v>60</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="12.75">
+      <c r="A15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14">
+        <v>120</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="12.75">
+      <c r="A16" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="13">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C16" s="13">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14">
+        <v>120</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="12.75">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="1:6" ht="13">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="1:6" ht="14">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="1:6" ht="13">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:6" ht="12.75">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:6" ht="12.75">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="24" spans="1:6" ht="13">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:6" ht="12.75">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27" spans="1:6" ht="13">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
-    </row>
-    <row r="28" spans="1:6" ht="13">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" spans="1:6" ht="13">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18"/>
-    </row>
-    <row r="30" spans="1:6" ht="13">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
-    </row>
-    <row r="31" spans="1:6" ht="13">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
-    </row>
-    <row r="32" spans="1:6" ht="13">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
-    </row>
-    <row r="33" spans="1:6" ht="13">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="18"/>
-    </row>
-    <row r="34" spans="1:6" ht="13">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="18"/>
-    </row>
-    <row r="35" spans="1:6" ht="13">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="18"/>
-    </row>
-    <row r="36" spans="1:6" ht="13">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="18"/>
-    </row>
-    <row r="37" spans="1:6" ht="13">
-      <c r="A37" s="18"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="18"/>
-    </row>
-    <row r="38" spans="1:6" ht="13">
-      <c r="A38" s="18"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="18"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" spans="1:6" ht="12.75">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="1:6" ht="12.75">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" spans="1:6" ht="12.75">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="1:6" ht="12.75">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" spans="1:6" ht="12.75">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="1:6" ht="12.75">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" spans="1:6" ht="12.75">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="15"/>
+    </row>
+    <row r="34" spans="1:6" ht="12.75">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" spans="1:6" ht="12.75">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" spans="1:6" ht="12.75">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="15"/>
+    </row>
+    <row r="37" spans="1:6" ht="12.75">
+      <c r="A37" s="15"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" spans="1:6" ht="12.75">
+      <c r="A38" s="15"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" spans="1:6" ht="12.75" customHeight="1">
       <c r="D39" s="4"/>
@@ -1307,14 +1889,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1425,14 +2007,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1543,14 +2125,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1661,14 +2243,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1779,14 +2361,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1897,14 +2479,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2015,14 +2597,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2133,14 +2715,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2251,14 +2833,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2369,14 +2951,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2487,14 +3069,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2605,14 +3187,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2723,14 +3305,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2841,14 +3423,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2959,14 +3541,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>

--- a/PSP/20151118 강주영 PSP.xlsx
+++ b/PSP/20151118 강주영 PSP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\융종설\jooyoung_git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PSP_강주영\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -617,6 +617,345 @@
         <charset val="129"/>
       </rPr>
       <t>작성</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Dotum"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Dotum"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최종</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Dotum"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Intial Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완성</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Class Design </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Sequence Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토의</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sequence Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Dotum"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성하기</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -693,7 +1032,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -716,11 +1055,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -749,7 +1129,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -775,6 +1154,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1088,21 +1503,21 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="23" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="22" customWidth="1"/>
     <col min="2" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="6" max="6" width="48.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
@@ -1114,19 +1529,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A2" s="21"/>
+      <c r="A2" s="20"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1135,7 +1550,7 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1160,10 +1575,10 @@
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>43716</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>0.6875</v>
       </c>
       <c r="C6" s="6">
@@ -1180,10 +1595,10 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>43716</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>0.75</v>
       </c>
       <c r="C7" s="6">
@@ -1200,10 +1615,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>43726</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>0.75</v>
       </c>
       <c r="C8" s="11">
@@ -1215,15 +1630,15 @@
       <c r="E8" s="12">
         <v>120</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <v>0.41666666666666669</v>
       </c>
       <c r="C9" s="11">
@@ -1240,7 +1655,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="11">
@@ -1260,7 +1675,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="11">
@@ -1280,7 +1695,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="11">
@@ -1300,7 +1715,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="11">
@@ -1320,7 +1735,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="11">
@@ -1340,103 +1755,163 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="16"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
+      <c r="A15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0.875</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
+        <v>180</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="16"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
+      <c r="A16" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12">
+        <v>240</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="12.75">
-      <c r="A17" s="16"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
+      <c r="A17" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="C17" s="31">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D17" s="32">
+        <v>0</v>
+      </c>
+      <c r="E17" s="33">
+        <v>330</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="12.75">
-      <c r="A18" s="16"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="14"/>
+      <c r="A18" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="C18" s="37">
+        <v>0.9375</v>
+      </c>
+      <c r="D18" s="38">
+        <v>30</v>
+      </c>
+      <c r="E18" s="39">
+        <v>240</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
+      <c r="A19" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="37">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C19" s="37">
+        <v>1.0208333333333333</v>
+      </c>
+      <c r="D19" s="38">
+        <v>0</v>
+      </c>
+      <c r="E19" s="39">
+        <v>90</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="12.75">
-      <c r="A20" s="16"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:6" ht="12.75">
-      <c r="A21" s="16"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="14"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="1:6" ht="12.75">
-      <c r="A22" s="16"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
     </row>
     <row r="24" spans="1:6" ht="12.75">
-      <c r="A24" s="16"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="40"/>
     </row>
     <row r="25" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A25" s="16"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="30"/>
     </row>
     <row r="27" spans="1:6" ht="12.75">
-      <c r="A27" s="16"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="7"/>
@@ -1444,7 +1919,7 @@
       <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" ht="12.75">
-      <c r="A28" s="16"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="7"/>
@@ -1452,7 +1927,7 @@
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" ht="12.75">
-      <c r="A29" s="16"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="7"/>
@@ -1460,7 +1935,7 @@
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" ht="12.75">
-      <c r="A30" s="16"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="7"/>
@@ -1468,7 +1943,7 @@
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" ht="12.75">
-      <c r="A31" s="16"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="7"/>
@@ -1476,7 +1951,7 @@
       <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" ht="12.75">
-      <c r="A32" s="16"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="7"/>
@@ -1484,7 +1959,7 @@
       <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" ht="12.75">
-      <c r="A33" s="16"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="7"/>
@@ -1492,7 +1967,7 @@
       <c r="F33" s="13"/>
     </row>
     <row r="34" spans="1:6" ht="12.75">
-      <c r="A34" s="16"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="7"/>
@@ -1500,7 +1975,7 @@
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" ht="12.75">
-      <c r="A35" s="16"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="7"/>
@@ -1508,7 +1983,7 @@
       <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:6" ht="12.75">
-      <c r="A36" s="16"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="7"/>
@@ -1516,7 +1991,7 @@
       <c r="F36" s="13"/>
     </row>
     <row r="37" spans="1:6" ht="12.75">
-      <c r="A37" s="25"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="7"/>
@@ -1524,7 +1999,7 @@
       <c r="F37" s="13"/>
     </row>
     <row r="38" spans="1:6" ht="12.75">
-      <c r="A38" s="25"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="7"/>

--- a/PSP/20151118 강주영 PSP.xlsx
+++ b/PSP/20151118 강주영 PSP.xlsx
@@ -1503,7 +1503,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>

--- a/PSP/20151118 강주영 PSP.xlsx
+++ b/PSP/20151118 강주영 PSP.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17668"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PSP_강주영\PSP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jennifer/Documents/GitHub/ChemicalManagementApplication/PSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5DE073-C127-7948-8767-8A4F004D3BF3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="12555" windowHeight="16125"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15420" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -34,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -959,15 +960,18 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>sdfsdf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
+    <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="166" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1119,23 +1123,23 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1154,15 +1158,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1170,29 +1174,29 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1499,21 +1503,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="22" customWidth="1"/>
-    <col min="2" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="22" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="11.25" customHeight="1">
@@ -1574,7 +1578,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="12.75">
+    <row r="6" spans="1:11" ht="14">
       <c r="A6" s="15">
         <v>43716</v>
       </c>
@@ -1594,7 +1598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="12.75">
+    <row r="7" spans="1:11" ht="13">
       <c r="A7" s="15">
         <v>43716</v>
       </c>
@@ -1614,7 +1618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="12.75">
+    <row r="8" spans="1:11" ht="14">
       <c r="A8" s="15">
         <v>43726</v>
       </c>
@@ -1634,7 +1638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="12.75">
+    <row r="9" spans="1:11" ht="14">
       <c r="A9" s="15" t="s">
         <v>22</v>
       </c>
@@ -1654,7 +1658,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="12.75">
+    <row r="10" spans="1:11" ht="14">
       <c r="A10" s="15" t="s">
         <v>20</v>
       </c>
@@ -1674,7 +1678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="12.75">
+    <row r="11" spans="1:11" ht="14">
       <c r="A11" s="15" t="s">
         <v>21</v>
       </c>
@@ -1694,7 +1698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="12.75">
+    <row r="12" spans="1:11" ht="14">
       <c r="A12" s="15" t="s">
         <v>18</v>
       </c>
@@ -1714,7 +1718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="12.75">
+    <row r="13" spans="1:11" ht="14">
       <c r="A13" s="15" t="s">
         <v>19</v>
       </c>
@@ -1754,7 +1758,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="12.75">
+    <row r="15" spans="1:11" ht="14">
       <c r="A15" s="15" t="s">
         <v>26</v>
       </c>
@@ -1774,7 +1778,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="12.75">
+    <row r="16" spans="1:11" ht="14">
       <c r="A16" s="25" t="s">
         <v>27</v>
       </c>
@@ -1794,7 +1798,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="12.75">
+    <row r="17" spans="1:6" ht="14">
       <c r="A17" s="42" t="s">
         <v>34</v>
       </c>
@@ -1814,7 +1818,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="12.75">
+    <row r="18" spans="1:6" ht="14">
       <c r="A18" s="36" t="s">
         <v>28</v>
       </c>
@@ -1854,7 +1858,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="12.75">
+    <row r="20" spans="1:6" ht="13">
       <c r="A20" s="34"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -1862,15 +1866,17 @@
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
     </row>
-    <row r="21" spans="1:6" ht="12.75">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="34"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-    </row>
-    <row r="22" spans="1:6" ht="12.75">
+      <c r="F21" s="35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="13">
       <c r="A22" s="36"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -1886,7 +1892,7 @@
       <c r="E23" s="39"/>
       <c r="F23" s="40"/>
     </row>
-    <row r="24" spans="1:6" ht="12.75">
+    <row r="24" spans="1:6" ht="13">
       <c r="A24" s="36"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
@@ -1910,7 +1916,7 @@
       <c r="E26" s="29"/>
       <c r="F26" s="30"/>
     </row>
-    <row r="27" spans="1:6" ht="12.75">
+    <row r="27" spans="1:6" ht="13">
       <c r="A27" s="15"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -1918,7 +1924,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
     </row>
-    <row r="28" spans="1:6" ht="12.75">
+    <row r="28" spans="1:6" ht="13">
       <c r="A28" s="15"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1926,7 +1932,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" spans="1:6" ht="12.75">
+    <row r="29" spans="1:6" ht="13">
       <c r="A29" s="15"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -1934,7 +1940,7 @@
       <c r="E29" s="12"/>
       <c r="F29" s="13"/>
     </row>
-    <row r="30" spans="1:6" ht="12.75">
+    <row r="30" spans="1:6" ht="13">
       <c r="A30" s="15"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -1942,7 +1948,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="1:6" ht="12.75">
+    <row r="31" spans="1:6" ht="13">
       <c r="A31" s="15"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -1950,7 +1956,7 @@
       <c r="E31" s="12"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="1:6" ht="12.75">
+    <row r="32" spans="1:6" ht="13">
       <c r="A32" s="15"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -1958,7 +1964,7 @@
       <c r="E32" s="12"/>
       <c r="F32" s="13"/>
     </row>
-    <row r="33" spans="1:6" ht="12.75">
+    <row r="33" spans="1:6" ht="13">
       <c r="A33" s="15"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1966,7 +1972,7 @@
       <c r="E33" s="12"/>
       <c r="F33" s="13"/>
     </row>
-    <row r="34" spans="1:6" ht="12.75">
+    <row r="34" spans="1:6" ht="13">
       <c r="A34" s="15"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -1974,7 +1980,7 @@
       <c r="E34" s="12"/>
       <c r="F34" s="13"/>
     </row>
-    <row r="35" spans="1:6" ht="12.75">
+    <row r="35" spans="1:6" ht="13">
       <c r="A35" s="15"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -1982,7 +1988,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="13"/>
     </row>
-    <row r="36" spans="1:6" ht="12.75">
+    <row r="36" spans="1:6" ht="13">
       <c r="A36" s="15"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -1990,7 +1996,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="13"/>
     </row>
-    <row r="37" spans="1:6" ht="12.75">
+    <row r="37" spans="1:6" ht="13">
       <c r="A37" s="24"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -1998,7 +2004,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="13"/>
     </row>
-    <row r="38" spans="1:6" ht="12.75">
+    <row r="38" spans="1:6" ht="13">
       <c r="A38" s="24"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -2266,14 +2272,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.7109375" customWidth="1"/>
+    <col min="1" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2384,14 +2390,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.7109375" customWidth="1"/>
+    <col min="1" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2502,14 +2508,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.7109375" customWidth="1"/>
+    <col min="1" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2620,14 +2626,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.7109375" customWidth="1"/>
+    <col min="1" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2738,14 +2744,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.7109375" customWidth="1"/>
+    <col min="1" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2856,14 +2862,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.7109375" customWidth="1"/>
+    <col min="1" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2974,14 +2980,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.7109375" customWidth="1"/>
+    <col min="1" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -3092,14 +3098,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.7109375" customWidth="1"/>
+    <col min="1" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -3210,14 +3216,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.7109375" customWidth="1"/>
+    <col min="1" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -3328,14 +3334,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.7109375" customWidth="1"/>
+    <col min="1" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -3446,14 +3452,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.7109375" customWidth="1"/>
+    <col min="1" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -3564,14 +3570,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.7109375" customWidth="1"/>
+    <col min="1" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -3682,14 +3688,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.7109375" customWidth="1"/>
+    <col min="1" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -3800,14 +3806,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.7109375" customWidth="1"/>
+    <col min="1" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -3918,14 +3924,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.7109375" customWidth="1"/>
+    <col min="1" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>

--- a/PSP/20151118 강주영 PSP.xlsx
+++ b/PSP/20151118 강주영 PSP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jennifer/Documents/GitHub/ChemicalManagementApplication/PSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF7B385-1FD8-CA45-9BCD-8A5A786D8004}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57057E7E-0019-844C-8505-10D092932314}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1460" windowWidth="25600" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -63,8 +63,269 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>Soojin Park:
-원래 Phase를 기술하지만, 우리는 관련된 Activity가 뭔지를 기술하도록 함. 성혜가 작성하는 Test Case 정도의 Granulity로 작성할 것</t>
+          <t xml:space="preserve">Soojin Park:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>원래</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Phase</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>기술하지만</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>우리는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>관련된</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Activity</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>뭔지를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>기술하도록</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>함</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>성혜가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>작성하는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Test Case </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>정도의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Granulity</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>작성할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>것</t>
         </r>
       </text>
     </comment>
@@ -73,7 +334,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -274,9 +535,6 @@
     <t>11월 27일</t>
   </si>
   <si>
-    <t>Software Requirement Specification 최종 수정</t>
-  </si>
-  <si>
     <t>11월 28일</t>
   </si>
   <si>
@@ -292,6 +550,9 @@
     <t>React 개발</t>
   </si>
   <si>
+    <t>12월 3일</t>
+  </si>
+  <si>
     <t>12월 4일</t>
   </si>
   <si>
@@ -335,6 +596,69 @@
   </si>
   <si>
     <t>Test Data Set 작성 및 React 개발</t>
+  </si>
+  <si>
+    <t>9월 10일</t>
+  </si>
+  <si>
+    <t>9월 17일</t>
+  </si>
+  <si>
+    <t>9월 19일</t>
+  </si>
+  <si>
+    <t>9월 24일</t>
+  </si>
+  <si>
+    <t>9월 26일</t>
+  </si>
+  <si>
+    <t>10월 1일</t>
+  </si>
+  <si>
+    <t>10월 8일</t>
+  </si>
+  <si>
+    <t>10월 10일</t>
+  </si>
+  <si>
+    <t>10월 15일</t>
+  </si>
+  <si>
+    <t>10월 17일</t>
+  </si>
+  <si>
+    <t>10월 29일</t>
+  </si>
+  <si>
+    <t>10월 31일</t>
+  </si>
+  <si>
+    <t>11월 5일</t>
+  </si>
+  <si>
+    <t>11월 7일</t>
+  </si>
+  <si>
+    <t>11월 12일</t>
+  </si>
+  <si>
+    <t>11월 14일</t>
+  </si>
+  <si>
+    <t>11월 19일</t>
+  </si>
+  <si>
+    <t>10월 21일</t>
+  </si>
+  <si>
+    <t>10월 26일</t>
+  </si>
+  <si>
+    <t>10월 28일</t>
+  </si>
+  <si>
+    <t>Software Requirement Specification 최종본 수정</t>
   </si>
 </sst>
 </file>
@@ -453,7 +777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -527,6 +851,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -895,7 +1220,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:11" ht="12.75" customHeight="1">
+    <row r="5" spans="1:11" ht="32">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
@@ -939,6 +1264,9 @@
       <c r="F6" s="18" t="s">
         <v>9</v>
       </c>
+      <c r="H6" s="35" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="13">
@@ -959,6 +1287,9 @@
       <c r="F7" s="18" t="s">
         <v>10</v>
       </c>
+      <c r="H7" s="35" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="13">
@@ -979,6 +1310,9 @@
       <c r="F8" s="21" t="s">
         <v>24</v>
       </c>
+      <c r="H8" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="13" t="s">
@@ -999,6 +1333,9 @@
       <c r="F9" s="21" t="s">
         <v>14</v>
       </c>
+      <c r="H9" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="13" t="s">
@@ -1019,6 +1356,9 @@
       <c r="F10" s="21" t="s">
         <v>15</v>
       </c>
+      <c r="H10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="13" t="s">
@@ -1039,6 +1379,9 @@
       <c r="F11" s="21" t="s">
         <v>27</v>
       </c>
+      <c r="H11" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="13" t="s">
@@ -1059,6 +1402,9 @@
       <c r="F12" s="21" t="s">
         <v>21</v>
       </c>
+      <c r="H12" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="13" t="s">
@@ -1079,6 +1425,9 @@
       <c r="F13" s="21" t="s">
         <v>19</v>
       </c>
+      <c r="H13" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
       <c r="A14" s="13" t="s">
@@ -1099,6 +1448,9 @@
       <c r="F14" s="21" t="s">
         <v>34</v>
       </c>
+      <c r="H14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="13" t="s">
@@ -1119,6 +1471,9 @@
       <c r="F15" s="21" t="s">
         <v>29</v>
       </c>
+      <c r="H15" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="13" t="s">
@@ -1140,7 +1495,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:8">
       <c r="A17" s="22" t="s">
         <v>35</v>
       </c>
@@ -1160,7 +1515,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:8">
       <c r="A18" s="22" t="s">
         <v>37</v>
       </c>
@@ -1179,8 +1534,11 @@
       <c r="F18" s="21" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="12.75" customHeight="1">
+      <c r="H18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="22" t="s">
         <v>31</v>
       </c>
@@ -1199,8 +1557,11 @@
       <c r="F19" s="21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="H19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="23" t="s">
         <v>32</v>
       </c>
@@ -1219,8 +1580,11 @@
       <c r="F20" s="27" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="H20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="28" t="s">
         <v>40</v>
       </c>
@@ -1239,8 +1603,11 @@
       <c r="F21" s="32" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="H21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="28" t="s">
         <v>42</v>
       </c>
@@ -1259,8 +1626,11 @@
       <c r="F22" s="32" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="12.75" customHeight="1">
+      <c r="H22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="12.75" customHeight="1">
       <c r="A23" s="28" t="s">
         <v>18</v>
       </c>
@@ -1279,8 +1649,11 @@
       <c r="F23" s="32" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="H23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="28" t="s">
         <v>44</v>
       </c>
@@ -1299,8 +1672,11 @@
       <c r="F24" s="32" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="H24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="28" t="s">
         <v>46</v>
       </c>
@@ -1319,8 +1695,11 @@
       <c r="F25" s="32" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="H25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="28" t="s">
         <v>66</v>
       </c>
@@ -1339,8 +1718,11 @@
       <c r="F26" s="32" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="H26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="28" t="s">
         <v>48</v>
       </c>
@@ -1359,8 +1741,11 @@
       <c r="F27" s="32" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="H27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="34" t="s">
         <v>50</v>
       </c>
@@ -1379,10 +1764,13 @@
       <c r="F28" s="32" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="H28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="29">
         <v>0.75</v>
@@ -1397,10 +1785,13 @@
         <v>270</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="H29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="28" t="s">
         <v>52</v>
       </c>
@@ -1417,12 +1808,12 @@
         <v>90</v>
       </c>
       <c r="F30" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="28" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="28" t="s">
-        <v>54</v>
       </c>
       <c r="B31" s="29">
         <v>0.5</v>
@@ -1437,12 +1828,12 @@
         <v>90</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B32" s="20">
         <v>0.4375</v>
@@ -1457,12 +1848,12 @@
         <v>120</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" s="20">
         <v>0.5</v>

--- a/PSP/20151118 강주영 PSP.xlsx
+++ b/PSP/20151118 강주영 PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jennifer/Documents/GitHub/ChemicalManagementApplication/PSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57057E7E-0019-844C-8505-10D092932314}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26ADC73-C400-B64A-B689-E563820A4BAE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="1460" windowWidth="25600" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -334,7 +334,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -516,149 +516,139 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Front End 개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">11월 23일 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Front End 개발 마무리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 27일</t>
+  </si>
+  <si>
+    <t>11월 28일</t>
+  </si>
+  <si>
+    <t>11월 29일</t>
+  </si>
+  <si>
+    <t>11월 30일</t>
+  </si>
+  <si>
+    <t>11월 26일</t>
+  </si>
+  <si>
+    <t>React 개발</t>
+  </si>
+  <si>
+    <t>12월 3일</t>
+  </si>
+  <si>
+    <t>12월 4일</t>
+  </si>
+  <si>
+    <t>12월 5일</t>
+  </si>
+  <si>
+    <t>12월 6일</t>
+  </si>
+  <si>
+    <t>12월 7일</t>
+  </si>
+  <si>
+    <t>12월 8일</t>
+  </si>
+  <si>
+    <t>12월 9일</t>
+  </si>
+  <si>
+    <t>프로젝트 수행계획서 최종본 수정</t>
+  </si>
+  <si>
+    <t>11월 20일</t>
+  </si>
+  <si>
+    <t>Front End 개발</t>
+  </si>
+  <si>
+    <t>Test Data Set 완성 및 Use Case Specification 최종본 완성</t>
+  </si>
+  <si>
+    <t>Use Case Specification 최종본 완성</t>
+  </si>
+  <si>
+    <t>Test 수행 및 최종 발표 자료 작성</t>
+  </si>
+  <si>
+    <t>최종 발표 자료 작성</t>
+  </si>
+  <si>
+    <t>Test Data Set 작성</t>
+  </si>
+  <si>
+    <t>Test Data Set 작성 및 React 개발</t>
+  </si>
+  <si>
+    <t>9월 10일</t>
+  </si>
+  <si>
+    <t>9월 17일</t>
+  </si>
+  <si>
+    <t>9월 19일</t>
+  </si>
+  <si>
+    <t>9월 24일</t>
+  </si>
+  <si>
+    <t>10월 1일</t>
+  </si>
+  <si>
+    <t>10월 8일</t>
+  </si>
+  <si>
+    <t>10월 10일</t>
+  </si>
+  <si>
+    <t>10월 15일</t>
+  </si>
+  <si>
+    <t>10월 17일</t>
+  </si>
+  <si>
+    <t>10월 29일</t>
+  </si>
+  <si>
+    <t>10월 31일</t>
+  </si>
+  <si>
+    <t>11월 5일</t>
+  </si>
+  <si>
+    <t>11월 7일</t>
+  </si>
+  <si>
+    <t>11월 19일</t>
+  </si>
+  <si>
+    <t>10월 21일</t>
+  </si>
+  <si>
+    <t>10월 26일</t>
+  </si>
+  <si>
+    <t>10월 28일</t>
+  </si>
+  <si>
+    <t>Software Requirement Specification 최종본 수정</t>
+  </si>
+  <si>
     <t xml:space="preserve">11월 21일 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Front End 개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">11월 23일 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Front End 개발 마무리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11월 27일</t>
-  </si>
-  <si>
-    <t>11월 28일</t>
-  </si>
-  <si>
-    <t>11월 29일</t>
-  </si>
-  <si>
-    <t>11월 30일</t>
-  </si>
-  <si>
-    <t>11월 26일</t>
-  </si>
-  <si>
-    <t>React 개발</t>
-  </si>
-  <si>
-    <t>12월 3일</t>
-  </si>
-  <si>
-    <t>12월 4일</t>
-  </si>
-  <si>
-    <t>12월 5일</t>
-  </si>
-  <si>
-    <t>12월 6일</t>
-  </si>
-  <si>
-    <t>12월 7일</t>
-  </si>
-  <si>
-    <t>12월 8일</t>
-  </si>
-  <si>
-    <t>12월 9일</t>
-  </si>
-  <si>
-    <t>프로젝트 수행계획서 최종본 수정</t>
-  </si>
-  <si>
-    <t>11월 20일</t>
-  </si>
-  <si>
-    <t>Front End 개발</t>
-  </si>
-  <si>
-    <t>Test Data Set 완성 및 Use Case Specification 최종본 완성</t>
-  </si>
-  <si>
-    <t>Use Case Specification 최종본 완성</t>
-  </si>
-  <si>
-    <t>Test 수행 및 최종 발표 자료 작성</t>
-  </si>
-  <si>
-    <t>최종 발표 자료 작성</t>
-  </si>
-  <si>
-    <t>Test Data Set 작성</t>
-  </si>
-  <si>
-    <t>Test Data Set 작성 및 React 개발</t>
-  </si>
-  <si>
-    <t>9월 10일</t>
-  </si>
-  <si>
-    <t>9월 17일</t>
-  </si>
-  <si>
-    <t>9월 19일</t>
-  </si>
-  <si>
-    <t>9월 24일</t>
-  </si>
-  <si>
-    <t>9월 26일</t>
-  </si>
-  <si>
-    <t>10월 1일</t>
-  </si>
-  <si>
-    <t>10월 8일</t>
-  </si>
-  <si>
-    <t>10월 10일</t>
-  </si>
-  <si>
-    <t>10월 15일</t>
-  </si>
-  <si>
-    <t>10월 17일</t>
-  </si>
-  <si>
-    <t>10월 29일</t>
-  </si>
-  <si>
-    <t>10월 31일</t>
-  </si>
-  <si>
-    <t>11월 5일</t>
-  </si>
-  <si>
-    <t>11월 7일</t>
-  </si>
-  <si>
-    <t>11월 12일</t>
-  </si>
-  <si>
-    <t>11월 14일</t>
-  </si>
-  <si>
-    <t>11월 19일</t>
-  </si>
-  <si>
-    <t>10월 21일</t>
-  </si>
-  <si>
-    <t>10월 26일</t>
-  </si>
-  <si>
-    <t>10월 28일</t>
-  </si>
-  <si>
-    <t>Software Requirement Specification 최종본 수정</t>
   </si>
 </sst>
 </file>
@@ -714,12 +704,18 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -777,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -826,8 +822,6 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -850,8 +844,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1162,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1264,8 +1286,8 @@
       <c r="F6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="35" t="s">
-        <v>74</v>
+      <c r="H6" s="32" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1287,805 +1309,890 @@
       <c r="F7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="34">
+        <v>0.5625</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="34">
+        <v>0.5625</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="H9" s="32"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="13">
+        <v>43726</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <v>120</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="13">
-        <v>43726</v>
-      </c>
-      <c r="B8" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="C8" s="20">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D8" s="16">
-        <v>0</v>
-      </c>
-      <c r="E8" s="17">
-        <v>120</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="19">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C9" s="20">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="D9" s="16">
-        <v>120</v>
-      </c>
-      <c r="E9" s="17">
-        <v>600</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="20">
-        <v>0.75</v>
-      </c>
-      <c r="C10" s="20">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D10" s="16">
-        <v>0</v>
-      </c>
-      <c r="E10" s="17">
-        <v>150</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>78</v>
-      </c>
-    </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="C11" s="20">
-        <v>0.75</v>
-      </c>
-      <c r="D11" s="16">
-        <v>0</v>
-      </c>
-      <c r="E11" s="17">
-        <v>360</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" t="s">
-        <v>79</v>
-      </c>
+      <c r="A11" s="13"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="20">
-        <v>0.625</v>
+        <v>13</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.41666666666666669</v>
       </c>
       <c r="C12" s="20">
-        <v>0.66666666666666663</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D12" s="16">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E12" s="17">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="20">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C13" s="20">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D13" s="16">
-        <v>0</v>
-      </c>
-      <c r="E13" s="17">
+      <c r="A13" s="13"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="17">
         <v>150</v>
       </c>
-      <c r="F13" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="20">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C14" s="20">
-        <v>0.375</v>
-      </c>
-      <c r="D14" s="16">
-        <v>0</v>
-      </c>
-      <c r="E14" s="17">
-        <v>60</v>
-      </c>
       <c r="F14" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B15" s="20">
-        <v>0.83333333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="C15" s="20">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="D15" s="16">
         <v>0</v>
       </c>
       <c r="E15" s="17">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="20">
+        <v>0.625</v>
+      </c>
+      <c r="C16" s="20">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
+        <v>60</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="22">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C17" s="22">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D17" s="23">
+        <v>0</v>
+      </c>
+      <c r="E17" s="24">
+        <v>150</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A18" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="27">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C18" s="27">
+        <v>0.375</v>
+      </c>
+      <c r="D18" s="28">
+        <v>0</v>
+      </c>
+      <c r="E18" s="29">
+        <v>60</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="27">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C20" s="27">
+        <v>0.875</v>
+      </c>
+      <c r="D20" s="28">
+        <v>0</v>
+      </c>
+      <c r="E20" s="29">
+        <v>60</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B21" s="27">
         <v>0.875</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C21" s="27">
         <v>1</v>
       </c>
-      <c r="D16" s="16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="17">
+      <c r="D21" s="28">
+        <v>0</v>
+      </c>
+      <c r="E21" s="29">
         <v>180</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F21" s="30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="22" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22" s="43"/>
+      <c r="B22" s="27">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C22" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="28">
+        <v>0</v>
+      </c>
+      <c r="E22" s="29">
+        <v>60</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="20">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C17" s="20">
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="30"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="27">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C24" s="27">
+        <v>0.625</v>
+      </c>
+      <c r="D24" s="28">
+        <v>0</v>
+      </c>
+      <c r="E24" s="29">
+        <v>120</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A25" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="C25" s="27">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D25" s="28">
+        <v>0</v>
+      </c>
+      <c r="E25" s="29">
+        <v>240</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="C26" s="27">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D26" s="28">
+        <v>0</v>
+      </c>
+      <c r="E26" s="29">
+        <v>330</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="30"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="27">
         <v>0.5</v>
       </c>
-      <c r="D17" s="16">
-        <v>0</v>
-      </c>
-      <c r="E17" s="17">
+      <c r="C28" s="27">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D28" s="28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="29">
+        <v>30</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="30"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="30"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="30"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="C32" s="27">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D32" s="28">
+        <v>0</v>
+      </c>
+      <c r="E32" s="29">
+        <v>300</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A33" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="27">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C33" s="27">
+        <v>1.0208333333333333</v>
+      </c>
+      <c r="D33" s="28">
+        <v>0</v>
+      </c>
+      <c r="E33" s="29">
+        <v>90</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="C34" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="D34" s="28">
+        <v>0</v>
+      </c>
+      <c r="E34" s="29">
+        <v>360</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="C35" s="27">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D35" s="28">
+        <v>0</v>
+      </c>
+      <c r="E35" s="29">
+        <v>240</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="30"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="27">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C37" s="27">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D37" s="28">
+        <v>0</v>
+      </c>
+      <c r="E37" s="29">
+        <v>240</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="30"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="27">
+        <v>0.625</v>
+      </c>
+      <c r="C39" s="27">
+        <v>0.875</v>
+      </c>
+      <c r="D39" s="28">
+        <v>0</v>
+      </c>
+      <c r="E39" s="29">
+        <v>360</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="C40" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="D40" s="28">
+        <v>0</v>
+      </c>
+      <c r="E40" s="29">
+        <v>360</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="30"/>
+    </row>
+    <row r="42" spans="1:8" s="44" customFormat="1">
+      <c r="A42" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="C42" s="27">
+        <v>0.9375</v>
+      </c>
+      <c r="D42" s="28">
+        <v>0</v>
+      </c>
+      <c r="E42" s="29">
+        <v>270</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" s="44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="27">
+        <v>0.625</v>
+      </c>
+      <c r="C43" s="27">
+        <v>0.6875</v>
+      </c>
+      <c r="D43" s="28">
+        <v>0</v>
+      </c>
+      <c r="E43" s="29">
+        <v>90</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="C44" s="27">
+        <v>0.5625</v>
+      </c>
+      <c r="D44" s="28">
+        <v>0</v>
+      </c>
+      <c r="E44" s="29">
+        <v>90</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="30"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="20">
+        <v>0.4375</v>
+      </c>
+      <c r="C46" s="20">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D46" s="16">
+        <v>0</v>
+      </c>
+      <c r="E46" s="17">
+        <v>120</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="C47" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D47" s="16">
+        <v>0</v>
+      </c>
+      <c r="E47" s="17">
+        <v>420</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="C49" s="20">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D49" s="16">
+        <v>0</v>
+      </c>
+      <c r="E49" s="17">
+        <v>300</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="20">
+        <v>0.4375</v>
+      </c>
+      <c r="C50" s="20">
+        <v>0.5625</v>
+      </c>
+      <c r="D50" s="16">
+        <v>0</v>
+      </c>
+      <c r="E50" s="17">
+        <v>180</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="21"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="20">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C18" s="20">
-        <v>0.625</v>
-      </c>
-      <c r="D18" s="16">
-        <v>0</v>
-      </c>
-      <c r="E18" s="17">
+      <c r="B52" s="20">
+        <v>0.6875</v>
+      </c>
+      <c r="C52" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D52" s="16">
+        <v>0</v>
+      </c>
+      <c r="E52" s="17">
         <v>120</v>
       </c>
-      <c r="F18" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="20">
-        <v>0.75</v>
-      </c>
-      <c r="C19" s="20">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="D19" s="16">
-        <v>0</v>
-      </c>
-      <c r="E19" s="17">
-        <v>240</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="C20" s="24">
-        <v>0.97916666666666663</v>
-      </c>
-      <c r="D20" s="25">
-        <v>0</v>
-      </c>
-      <c r="E20" s="26">
-        <v>330</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="29">
+      <c r="F52" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="20">
         <v>0.5</v>
       </c>
-      <c r="C21" s="29">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D21" s="30">
-        <v>0</v>
-      </c>
-      <c r="E21" s="31">
-        <v>30</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="C22" s="29">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D22" s="30">
-        <v>0</v>
-      </c>
-      <c r="E22" s="31">
-        <v>300</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A23" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="29">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="C23" s="29">
-        <v>1.0208333333333333</v>
-      </c>
-      <c r="D23" s="30">
-        <v>0</v>
-      </c>
-      <c r="E23" s="31">
-        <v>90</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="C24" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="D24" s="30">
-        <v>0</v>
-      </c>
-      <c r="E24" s="31">
-        <v>360</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="C25" s="29">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D25" s="30">
-        <v>0</v>
-      </c>
-      <c r="E25" s="31">
-        <v>240</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="29">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C26" s="29">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="D26" s="30">
-        <v>0</v>
-      </c>
-      <c r="E26" s="31">
-        <v>240</v>
-      </c>
-      <c r="F26" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="29">
-        <v>0.625</v>
-      </c>
-      <c r="C27" s="29">
-        <v>0.875</v>
-      </c>
-      <c r="D27" s="30">
-        <v>0</v>
-      </c>
-      <c r="E27" s="31">
-        <v>360</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="H27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="C28" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="D28" s="30">
-        <v>0</v>
-      </c>
-      <c r="E28" s="31">
-        <v>360</v>
-      </c>
-      <c r="F28" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="C29" s="29">
-        <v>0.9375</v>
-      </c>
-      <c r="D29" s="30">
-        <v>0</v>
-      </c>
-      <c r="E29" s="31">
+      <c r="C53" s="20">
+        <v>0.6875</v>
+      </c>
+      <c r="D53" s="16">
+        <v>0</v>
+      </c>
+      <c r="E53" s="17">
         <v>270</v>
       </c>
-      <c r="F29" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="H29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="29">
-        <v>0.625</v>
-      </c>
-      <c r="C30" s="29">
-        <v>0.6875</v>
-      </c>
-      <c r="D30" s="30">
-        <v>0</v>
-      </c>
-      <c r="E30" s="31">
-        <v>90</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="C31" s="29">
-        <v>0.5625</v>
-      </c>
-      <c r="D31" s="30">
-        <v>0</v>
-      </c>
-      <c r="E31" s="31">
-        <v>90</v>
-      </c>
-      <c r="F31" s="32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="20">
-        <v>0.4375</v>
-      </c>
-      <c r="C32" s="20">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D32" s="16">
-        <v>0</v>
-      </c>
-      <c r="E32" s="17">
-        <v>120</v>
-      </c>
-      <c r="F32" s="32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="C33" s="20">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D33" s="16">
-        <v>0</v>
-      </c>
-      <c r="E33" s="17">
-        <v>420</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="20">
-        <v>0.75</v>
-      </c>
-      <c r="C34" s="20">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D34" s="16">
-        <v>0</v>
-      </c>
-      <c r="E34" s="17">
-        <v>300</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="20">
-        <v>0.4375</v>
-      </c>
-      <c r="C35" s="20">
-        <v>0.5625</v>
-      </c>
-      <c r="D35" s="16">
-        <v>0</v>
-      </c>
-      <c r="E35" s="17">
-        <v>180</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="20">
-        <v>0.6875</v>
-      </c>
-      <c r="C36" s="20">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D36" s="16">
-        <v>0</v>
-      </c>
-      <c r="E36" s="17">
-        <v>120</v>
-      </c>
-      <c r="F36" s="21" t="s">
+      <c r="F53" s="21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="13" t="s">
+    <row r="54" spans="1:6">
+      <c r="A54" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="C37" s="20">
-        <v>0.1875</v>
-      </c>
-      <c r="D37" s="16">
-        <v>0</v>
-      </c>
-      <c r="E37" s="17">
-        <v>270</v>
-      </c>
-      <c r="F37" s="21" t="s">
+      <c r="B54" s="20">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C54" s="20">
+        <v>0</v>
+      </c>
+      <c r="D54" s="16">
+        <v>0</v>
+      </c>
+      <c r="E54" s="16">
+        <v>480</v>
+      </c>
+      <c r="F54" s="21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="13" t="s">
+    <row r="55" spans="1:6">
+      <c r="A55" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="20">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C38" s="20">
-        <v>0</v>
-      </c>
-      <c r="D38" s="16">
-        <v>0</v>
-      </c>
-      <c r="E38" s="16">
-        <v>480</v>
-      </c>
-      <c r="F38" s="21" t="s">
+      <c r="B55" s="20">
+        <v>0</v>
+      </c>
+      <c r="C55" s="20"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="20">
-        <v>0</v>
-      </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="33"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="21"/>
-    </row>
-    <row r="41" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" ht="12.75" customHeight="1">
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="4:5" ht="12.75" customHeight="1">
+    <row r="56" spans="1:6">
+      <c r="A56" s="31"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" spans="1:6" ht="12.75" customHeight="1">
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="4:5" ht="12.75" customHeight="1">
+    <row r="58" spans="1:6" ht="12.75" customHeight="1">
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="4:5" ht="12.75" customHeight="1">
+    <row r="59" spans="1:6" ht="12.75" customHeight="1">
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="4:5" ht="12.75" customHeight="1">
+    <row r="60" spans="1:6" ht="12.75" customHeight="1">
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="4:5" ht="12.75" customHeight="1">
+    <row r="61" spans="1:6" ht="12.75" customHeight="1">
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="4:5" ht="12.75" customHeight="1">
+    <row r="62" spans="1:6" ht="12.75" customHeight="1">
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="4:5" ht="12.75" customHeight="1">
+    <row r="63" spans="1:6" ht="12.75" customHeight="1">
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="4:5" ht="12.75" customHeight="1">
+    <row r="64" spans="1:6" ht="12.75" customHeight="1">
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
@@ -2240,6 +2347,70 @@
     <row r="102" spans="4:5" ht="12.75" customHeight="1">
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="4:5" ht="12.75" customHeight="1">
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="4:5" ht="12.75" customHeight="1">
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="4:5" ht="12.75" customHeight="1">
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="4:5" ht="12.75" customHeight="1">
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="4:5" ht="12.75" customHeight="1">
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="4:5" ht="12.75" customHeight="1">
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="4:5" ht="12.75" customHeight="1">
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="4:5" ht="12.75" customHeight="1">
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="4:5" ht="12.75" customHeight="1">
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="4:5" ht="12.75" customHeight="1">
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="4:5" ht="12.75" customHeight="1">
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="4:5" ht="12.75" customHeight="1">
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="4:5" ht="12.75" customHeight="1">
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+    </row>
+    <row r="116" spans="4:5" ht="12.75" customHeight="1">
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+    </row>
+    <row r="117" spans="4:5" ht="12.75" customHeight="1">
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="4:5" ht="12.75" customHeight="1">
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/PSP/20151118 강주영 PSP.xlsx
+++ b/PSP/20151118 강주영 PSP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jennifer/Documents/GitHub/ChemicalManagementApplication/PSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26ADC73-C400-B64A-B689-E563820A4BAE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FC6A68-E591-D94F-ABB2-E143D6C88AE8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1460" windowWidth="25600" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,151 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
-중간에 interrupt 걸린 시간 포함 작업시간. 10분 단위로 작성
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>중간에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> interrupt </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>걸린</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>시간</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>포함</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>작업시간</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>. 10</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>분</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>단위로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>작성</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
@@ -334,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -464,10 +608,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10월 8일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Use Case Specification 관련 개인과제 수행</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -516,18 +656,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Front End 개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">11월 23일 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Front End 개발 마무리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>11월 27일</t>
   </si>
   <si>
@@ -546,15 +678,9 @@
     <t>React 개발</t>
   </si>
   <si>
-    <t>12월 3일</t>
-  </si>
-  <si>
     <t>12월 4일</t>
   </si>
   <si>
-    <t>12월 5일</t>
-  </si>
-  <si>
     <t>12월 6일</t>
   </si>
   <si>
@@ -567,24 +693,9 @@
     <t>12월 9일</t>
   </si>
   <si>
-    <t>프로젝트 수행계획서 최종본 수정</t>
-  </si>
-  <si>
     <t>11월 20일</t>
   </si>
   <si>
-    <t>Front End 개발</t>
-  </si>
-  <si>
-    <t>Test Data Set 완성 및 Use Case Specification 최종본 완성</t>
-  </si>
-  <si>
-    <t>Use Case Specification 최종본 완성</t>
-  </si>
-  <si>
-    <t>Test 수행 및 최종 발표 자료 작성</t>
-  </si>
-  <si>
     <t>최종 발표 자료 작성</t>
   </si>
   <si>
@@ -594,73 +705,725 @@
     <t>Test Data Set 작성 및 React 개발</t>
   </si>
   <si>
-    <t>9월 10일</t>
-  </si>
-  <si>
-    <t>9월 17일</t>
-  </si>
-  <si>
-    <t>9월 19일</t>
-  </si>
-  <si>
-    <t>9월 24일</t>
-  </si>
-  <si>
-    <t>10월 1일</t>
-  </si>
-  <si>
-    <t>10월 8일</t>
-  </si>
-  <si>
-    <t>10월 10일</t>
-  </si>
-  <si>
-    <t>10월 15일</t>
-  </si>
-  <si>
-    <t>10월 17일</t>
-  </si>
-  <si>
-    <t>10월 29일</t>
-  </si>
-  <si>
-    <t>10월 31일</t>
-  </si>
-  <si>
-    <t>11월 5일</t>
-  </si>
-  <si>
-    <t>11월 7일</t>
-  </si>
-  <si>
-    <t>11월 19일</t>
-  </si>
-  <si>
-    <t>10월 21일</t>
-  </si>
-  <si>
-    <t>10월 26일</t>
-  </si>
-  <si>
-    <t>10월 28일</t>
-  </si>
-  <si>
     <t>Software Requirement Specification 최종본 수정</t>
   </si>
   <si>
     <t xml:space="preserve">11월 21일 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어플리케이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구상</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어플리케이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어플리케이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>손으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그려서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>역할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분담</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Software Requirement Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Initial Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구상</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Software Requirement Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타팀평가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의견</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취합</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Class Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> key </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> attribute </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설정</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Class Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+  </si>
+  <si>
+    <t>Front End 개발 - Use case 5번</t>
+  </si>
+  <si>
+    <t>Front End 개발  - Use case 5번</t>
+  </si>
+  <si>
+    <r>
+      <t>Class Diagram 및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ER Diagram</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 수정</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수행계획서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">최종본 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Use Case Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코딩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 팀과 맞추기</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>Use Case Specification 코딩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 팀과 맞추고 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Test Data Set Pass/Fail </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">완성 및 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Use Case Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
     <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="166" formatCode="h:mm;@"/>
+    <numFmt numFmtId="167" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -703,19 +1466,58 @@
       <family val="1"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -770,10 +1572,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -845,38 +1648,36 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1184,10 +1985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K118"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1196,7 +1997,7 @@
     <col min="2" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" customWidth="1"/>
     <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.5" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1286,9 +2087,7 @@
       <c r="F6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="32" t="s">
-        <v>73</v>
-      </c>
+      <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="13">
@@ -1309,860 +2108,905 @@
       <c r="F7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="32" t="s">
-        <v>74</v>
-      </c>
+      <c r="H7" s="32"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="34">
+      <c r="A8" s="13">
+        <v>43726</v>
+      </c>
+      <c r="B8" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>120</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14">
+      <c r="A9" s="35">
+        <v>43727</v>
+      </c>
+      <c r="B9" s="36">
         <v>0.5625</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="34">
+      <c r="C9" s="36">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D9" s="37">
+        <v>45</v>
+      </c>
+      <c r="E9" s="38">
+        <v>75</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D10" s="16">
+        <v>120</v>
+      </c>
+      <c r="E10" s="17">
+        <v>720</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14">
+      <c r="A11" s="35">
+        <v>43732</v>
+      </c>
+      <c r="B11" s="36">
         <v>0.5625</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="13">
-        <v>43726</v>
-      </c>
-      <c r="B10" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="C10" s="20">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D10" s="16">
-        <v>0</v>
-      </c>
-      <c r="E10" s="17">
-        <v>120</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="C11" s="36">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D11" s="37">
+        <v>0</v>
+      </c>
+      <c r="E11" s="38">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="13"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="21"/>
+      <c r="F11" s="39" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="19">
-        <v>0.41666666666666669</v>
+        <v>25</v>
+      </c>
+      <c r="B12" s="20">
+        <v>0.75</v>
       </c>
       <c r="C12" s="20">
-        <v>0.91666666666666663</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D12" s="16">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="E12" s="17">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="13"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="21"/>
+      <c r="A13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="17">
+        <v>360</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="13" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B14" s="20">
+        <v>0.625</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="17">
+        <v>60</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="22">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C15" s="22">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D15" s="23">
+        <v>0</v>
+      </c>
+      <c r="E15" s="24">
+        <v>150</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A16" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="27">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C16" s="27">
+        <v>0.375</v>
+      </c>
+      <c r="D16" s="28">
+        <v>0</v>
+      </c>
+      <c r="E16" s="29">
+        <v>60</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="27">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C17" s="27">
+        <v>0.875</v>
+      </c>
+      <c r="D17" s="28">
+        <v>0</v>
+      </c>
+      <c r="E17" s="29">
+        <v>60</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="27">
+        <v>0.875</v>
+      </c>
+      <c r="C18" s="27">
+        <v>1</v>
+      </c>
+      <c r="D18" s="28">
+        <v>0</v>
+      </c>
+      <c r="E18" s="29">
+        <v>180</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="35">
+        <v>43746</v>
+      </c>
+      <c r="B19" s="41">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C19" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="42">
+        <v>0</v>
+      </c>
+      <c r="E19" s="43">
+        <v>60</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14">
+      <c r="A20" s="35">
+        <v>43746</v>
+      </c>
+      <c r="B20" s="36">
+        <v>0.5625</v>
+      </c>
+      <c r="C20" s="36">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D20" s="37">
+        <v>0</v>
+      </c>
+      <c r="E20" s="38">
+        <v>75</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A21" s="35">
+        <v>43748</v>
+      </c>
+      <c r="B21" s="36">
+        <v>0.5625</v>
+      </c>
+      <c r="C21" s="36">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D21" s="37">
+        <v>30</v>
+      </c>
+      <c r="E21" s="38">
+        <v>75</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="41">
+        <v>0.625</v>
+      </c>
+      <c r="C22" s="41">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D22" s="42">
+        <v>0</v>
+      </c>
+      <c r="E22" s="43">
+        <v>120</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="41">
         <v>0.75</v>
       </c>
-      <c r="C14" s="20">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D14" s="16">
-        <v>0</v>
-      </c>
-      <c r="E14" s="17">
-        <v>150</v>
-      </c>
-      <c r="F14" s="21" t="s">
+      <c r="C23" s="41">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D23" s="42">
+        <v>0</v>
+      </c>
+      <c r="E23" s="43">
+        <v>240</v>
+      </c>
+      <c r="F23" s="44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14">
+      <c r="A24" s="35">
+        <v>43753</v>
+      </c>
+      <c r="B24" s="36">
+        <v>0.5625</v>
+      </c>
+      <c r="C24" s="36">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D24" s="37">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="C15" s="20">
-        <v>0.75</v>
-      </c>
-      <c r="D15" s="16">
-        <v>0</v>
-      </c>
-      <c r="E15" s="17">
-        <v>360</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="20">
-        <v>0.625</v>
-      </c>
-      <c r="C16" s="20">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D16" s="16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="17">
-        <v>60</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="22">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C17" s="22">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D17" s="23">
-        <v>0</v>
-      </c>
-      <c r="E17" s="24">
-        <v>150</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A18" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="27">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C18" s="27">
-        <v>0.375</v>
-      </c>
-      <c r="D18" s="28">
-        <v>0</v>
-      </c>
-      <c r="E18" s="29">
-        <v>60</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="27">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C20" s="27">
-        <v>0.875</v>
-      </c>
-      <c r="D20" s="28">
-        <v>0</v>
-      </c>
-      <c r="E20" s="29">
-        <v>60</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="27">
-        <v>0.875</v>
-      </c>
-      <c r="C21" s="27">
-        <v>1</v>
-      </c>
-      <c r="D21" s="28">
-        <v>0</v>
-      </c>
-      <c r="E21" s="29">
-        <v>180</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="43"/>
-      <c r="B22" s="27">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C22" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="28">
-        <v>0</v>
-      </c>
-      <c r="E22" s="29">
-        <v>60</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="27">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C24" s="27">
-        <v>0.625</v>
-      </c>
-      <c r="D24" s="28">
-        <v>0</v>
-      </c>
-      <c r="E24" s="29">
-        <v>120</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A25" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="27">
-        <v>0.75</v>
-      </c>
-      <c r="C25" s="27">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="D25" s="28">
-        <v>0</v>
-      </c>
-      <c r="E25" s="29">
-        <v>240</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="E24" s="38">
+        <v>75</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14">
+      <c r="A25" s="35">
+        <v>43755</v>
+      </c>
+      <c r="B25" s="36">
+        <v>0.5625</v>
+      </c>
+      <c r="C25" s="36">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D25" s="37">
+        <v>0</v>
+      </c>
+      <c r="E25" s="38">
+        <v>75</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="41">
         <v>0.75</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="41">
         <v>0.97916666666666663</v>
       </c>
-      <c r="D26" s="28">
-        <v>0</v>
-      </c>
-      <c r="E26" s="29">
+      <c r="D26" s="42">
+        <v>0</v>
+      </c>
+      <c r="E26" s="43">
         <v>330</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="H26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="30"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="26" t="s">
+      <c r="B27" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="C27" s="27">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D27" s="28">
+        <v>0</v>
+      </c>
+      <c r="E27" s="29">
+        <v>30</v>
+      </c>
+      <c r="F27" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="27">
+    </row>
+    <row r="28" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A28" s="35">
+        <v>43769</v>
+      </c>
+      <c r="B28" s="36">
+        <v>0.5625</v>
+      </c>
+      <c r="C28" s="36">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D28" s="37">
+        <v>0</v>
+      </c>
+      <c r="E28" s="38">
+        <v>75</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14">
+      <c r="A29" s="35">
+        <v>43774</v>
+      </c>
+      <c r="B29" s="36">
+        <v>0.5625</v>
+      </c>
+      <c r="C29" s="36">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D29" s="37">
+        <v>0</v>
+      </c>
+      <c r="E29" s="38">
+        <v>75</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14">
+      <c r="A30" s="35">
+        <v>43776</v>
+      </c>
+      <c r="B30" s="36">
+        <v>0.5625</v>
+      </c>
+      <c r="C30" s="36">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D30" s="37">
+        <v>0</v>
+      </c>
+      <c r="E30" s="38">
+        <v>75</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="C31" s="27">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D31" s="28">
+        <v>0</v>
+      </c>
+      <c r="E31" s="29">
+        <v>300</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="27">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C32" s="27">
+        <v>1.0208333333333333</v>
+      </c>
+      <c r="D32" s="28">
+        <v>0</v>
+      </c>
+      <c r="E32" s="29">
+        <v>90</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="27">
         <v>0.5</v>
       </c>
-      <c r="C28" s="27">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D28" s="28">
-        <v>0</v>
-      </c>
-      <c r="E28" s="29">
-        <v>30</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="30"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="30"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="30"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="27">
+      <c r="C33" s="27">
         <v>0.75</v>
       </c>
-      <c r="C32" s="27">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D32" s="28">
-        <v>0</v>
-      </c>
-      <c r="E32" s="29">
-        <v>300</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A33" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="27">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="C33" s="27">
-        <v>1.0208333333333333</v>
-      </c>
       <c r="D33" s="28">
         <v>0</v>
       </c>
       <c r="E33" s="29">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" s="27">
         <v>0.5</v>
       </c>
       <c r="C34" s="27">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D34" s="28">
+        <v>0</v>
+      </c>
+      <c r="E34" s="29">
+        <v>240</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="27">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C35" s="27">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D35" s="28">
+        <v>0</v>
+      </c>
+      <c r="E35" s="29">
+        <v>360</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="34" customFormat="1" ht="14">
+      <c r="A36" s="35">
+        <v>43790</v>
+      </c>
+      <c r="B36" s="36">
+        <v>0.5625</v>
+      </c>
+      <c r="C36" s="36">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D36" s="37">
+        <v>0</v>
+      </c>
+      <c r="E36" s="38">
+        <v>75</v>
+      </c>
+      <c r="F36" s="39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="27">
+        <v>0.625</v>
+      </c>
+      <c r="C37" s="27">
+        <v>0.875</v>
+      </c>
+      <c r="D37" s="28">
+        <v>0</v>
+      </c>
+      <c r="E37" s="29">
+        <v>360</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="C38" s="27">
         <v>0.75</v>
       </c>
-      <c r="D34" s="28">
-        <v>0</v>
-      </c>
-      <c r="E34" s="29">
+      <c r="D38" s="28">
+        <v>0</v>
+      </c>
+      <c r="E38" s="29">
         <v>360</v>
       </c>
-      <c r="F34" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="H34" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="27">
+      <c r="F38" s="30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="35">
+        <v>43795</v>
+      </c>
+      <c r="B39" s="36">
+        <v>0.5625</v>
+      </c>
+      <c r="C39" s="36">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D39" s="37">
+        <v>0</v>
+      </c>
+      <c r="E39" s="38">
+        <v>75</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="C40" s="27">
+        <v>0.9375</v>
+      </c>
+      <c r="D40" s="28">
+        <v>0</v>
+      </c>
+      <c r="E40" s="29">
+        <v>270</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="27">
+        <v>0.625</v>
+      </c>
+      <c r="C41" s="27">
+        <v>0.6875</v>
+      </c>
+      <c r="D41" s="28">
+        <v>0</v>
+      </c>
+      <c r="E41" s="29">
+        <v>90</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="27">
         <v>0.5</v>
       </c>
-      <c r="C35" s="27">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D35" s="28">
-        <v>0</v>
-      </c>
-      <c r="E35" s="29">
-        <v>240</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="H35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="30"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="27">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C37" s="27">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="D37" s="28">
-        <v>0</v>
-      </c>
-      <c r="E37" s="29">
-        <v>240</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="H37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="30"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" s="27">
-        <v>0.625</v>
-      </c>
-      <c r="C39" s="27">
-        <v>0.875</v>
-      </c>
-      <c r="D39" s="28">
-        <v>0</v>
-      </c>
-      <c r="E39" s="29">
-        <v>360</v>
-      </c>
-      <c r="F39" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="H39" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="27">
+      <c r="C42" s="36">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D42" s="28">
+        <v>0</v>
+      </c>
+      <c r="E42" s="29">
+        <v>165</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="20">
+        <v>0.4375</v>
+      </c>
+      <c r="C43" s="20">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D43" s="16">
+        <v>0</v>
+      </c>
+      <c r="E43" s="17">
+        <v>120</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="20">
         <v>0.5</v>
       </c>
-      <c r="C40" s="27">
+      <c r="C44" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D44" s="16">
+        <v>0</v>
+      </c>
+      <c r="E44" s="17">
+        <v>390</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="14">
+      <c r="A45" s="35">
+        <v>43802</v>
+      </c>
+      <c r="B45" s="36">
+        <v>0.5625</v>
+      </c>
+      <c r="C45" s="36">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D45" s="37">
+        <v>0</v>
+      </c>
+      <c r="E45" s="38">
+        <v>75</v>
+      </c>
+      <c r="F45" s="39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="20">
         <v>0.75</v>
       </c>
-      <c r="D40" s="28">
-        <v>0</v>
-      </c>
-      <c r="E40" s="29">
-        <v>360</v>
-      </c>
-      <c r="F40" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="C46" s="20">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D46" s="16">
+        <v>0</v>
+      </c>
+      <c r="E46" s="17">
+        <v>300</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="35">
+        <v>43804</v>
+      </c>
+      <c r="B47" s="36">
+        <v>0.4375</v>
+      </c>
+      <c r="C47" s="36">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D47" s="37">
+        <v>0</v>
+      </c>
+      <c r="E47" s="38">
+        <v>255</v>
+      </c>
+      <c r="F47" s="45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="20">
+        <v>0.6875</v>
+      </c>
+      <c r="C48" s="20">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D48" s="16">
+        <v>0</v>
+      </c>
+      <c r="E48" s="17">
+        <v>120</v>
+      </c>
+      <c r="F48" s="46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A49" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="C49" s="20">
+        <v>0.6875</v>
+      </c>
+      <c r="D49" s="16">
+        <v>0</v>
+      </c>
+      <c r="E49" s="17">
+        <v>270</v>
+      </c>
+      <c r="F49" s="46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A50" s="13" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="30"/>
-    </row>
-    <row r="42" spans="1:8" s="44" customFormat="1">
-      <c r="A42" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="27">
-        <v>0.75</v>
-      </c>
-      <c r="C42" s="27">
-        <v>0.9375</v>
-      </c>
-      <c r="D42" s="28">
-        <v>0</v>
-      </c>
-      <c r="E42" s="29">
-        <v>270</v>
-      </c>
-      <c r="F42" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="H42" s="44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="27">
-        <v>0.625</v>
-      </c>
-      <c r="C43" s="27">
-        <v>0.6875</v>
-      </c>
-      <c r="D43" s="28">
-        <v>0</v>
-      </c>
-      <c r="E43" s="29">
-        <v>90</v>
-      </c>
-      <c r="F43" s="30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="C44" s="27">
-        <v>0.5625</v>
-      </c>
-      <c r="D44" s="28">
-        <v>0</v>
-      </c>
-      <c r="E44" s="29">
-        <v>90</v>
-      </c>
-      <c r="F44" s="30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="30"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="20">
-        <v>0.4375</v>
-      </c>
-      <c r="C46" s="20">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D46" s="16">
-        <v>0</v>
-      </c>
-      <c r="E46" s="17">
-        <v>120</v>
-      </c>
-      <c r="F46" s="30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="C47" s="20">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D47" s="16">
-        <v>0</v>
-      </c>
-      <c r="E47" s="17">
-        <v>420</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="21"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="13" t="s">
+      <c r="B50" s="20">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C50" s="20">
+        <v>0</v>
+      </c>
+      <c r="D50" s="16">
+        <v>0</v>
+      </c>
+      <c r="E50" s="16">
+        <v>600</v>
+      </c>
+      <c r="F50" s="46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A51" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="20">
-        <v>0.75</v>
-      </c>
-      <c r="C49" s="20">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D49" s="16">
-        <v>0</v>
-      </c>
-      <c r="E49" s="17">
-        <v>300</v>
-      </c>
-      <c r="F49" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" s="20">
-        <v>0.4375</v>
-      </c>
-      <c r="C50" s="20">
-        <v>0.5625</v>
-      </c>
-      <c r="D50" s="16">
-        <v>0</v>
-      </c>
-      <c r="E50" s="17">
-        <v>180</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" s="20"/>
+      <c r="B51" s="20">
+        <v>0</v>
+      </c>
       <c r="C51" s="20"/>
       <c r="D51" s="16"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="21"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="13" t="s">
+      <c r="E51" s="16"/>
+      <c r="F51" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="20">
-        <v>0.6875</v>
-      </c>
-      <c r="C52" s="20">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D52" s="16">
-        <v>0</v>
-      </c>
-      <c r="E52" s="17">
-        <v>120</v>
-      </c>
-      <c r="F52" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="C53" s="20">
-        <v>0.6875</v>
-      </c>
-      <c r="D53" s="16">
-        <v>0</v>
-      </c>
-      <c r="E53" s="17">
-        <v>270</v>
-      </c>
-      <c r="F53" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B54" s="20">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C54" s="20">
-        <v>0</v>
-      </c>
-      <c r="D54" s="16">
-        <v>0</v>
-      </c>
-      <c r="E54" s="16">
-        <v>480</v>
-      </c>
-      <c r="F54" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" s="20">
-        <v>0</v>
-      </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="31"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="21"/>
+    </row>
+    <row r="52" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A52" s="31"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" spans="1:6" ht="12.75" customHeight="1">
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" ht="12.75" customHeight="1">
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" ht="12.75" customHeight="1">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" ht="12.75" customHeight="1">
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:6" ht="12.75" customHeight="1">
       <c r="D57" s="1"/>
@@ -2380,37 +3224,21 @@
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="4:5" ht="12.75" customHeight="1">
+    <row r="111" spans="4:5" ht="15" customHeight="1">
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="4:5" ht="12.75" customHeight="1">
+    <row r="112" spans="4:5" ht="15" customHeight="1">
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="4:5" ht="12.75" customHeight="1">
+    <row r="113" spans="4:5" ht="15" customHeight="1">
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="4:5" ht="12.75" customHeight="1">
+    <row r="114" spans="4:5" ht="15" customHeight="1">
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
-    </row>
-    <row r="115" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-    </row>
-    <row r="116" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-    </row>
-    <row r="117" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-    </row>
-    <row r="118" spans="4:5" ht="12.75" customHeight="1">
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
